--- a/Appendix A. Supplementary data.xlsx
+++ b/Appendix A. Supplementary data.xlsx
@@ -1,45 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\5-复杂地形对高速远程滑坡铲刮减阻效应的促进作用研究\4_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\5-微地貌对高速远程滑坡铲刮机制及促滑效应的控制研究\4_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD007DF-A25C-4CC5-9E09-7227A2BA7BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41352F53-D11D-47D1-8A3F-1F3E24637462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34452" yWindow="8448" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$K$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reference!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="175">
   <si>
     <t>1~2</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -296,31 +287,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Type of wider vertical valley</t>
-  </si>
-  <si>
-    <t>Type of wider vertical valley</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type of narrow vertical channel</t>
-  </si>
-  <si>
-    <t>Type of gentle vertical slope</t>
-  </si>
-  <si>
-    <t>Type of wider curved valley</t>
-  </si>
-  <si>
-    <t>Type of narrow curved channel</t>
-  </si>
-  <si>
-    <t>Type of channel with wide below and narrow above</t>
-  </si>
-  <si>
-    <t>Type of channel with wide above and narrow below</t>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -329,10 +295,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Plane shape</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Slope width</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -341,17 +303,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Profile shape</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fold type</t>
-  </si>
-  <si>
     <t>Linear type</t>
-  </si>
-  <si>
-    <t>Stepped ramp type</t>
   </si>
   <si>
     <t>Movement distance/m</t>
@@ -1446,6 +1398,56 @@
   </si>
   <si>
     <t>Zhu, Y. 2020. Research on the disaster-causing mechanism of typical rock slide-debris avalanches in Guizhou, China. Chengdu University of Technology.(in Chinese)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The topography in the planform</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The topography in the profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper wide and lower narrow type</t>
+  </si>
+  <si>
+    <t>Upper wide and lower narrow type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper narrow and lower wide type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broad valley type</t>
+  </si>
+  <si>
+    <t>Broad valley type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smooth slope type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinuous gully type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gully type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curved broad valley type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broken type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stepped type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1873,57 +1875,57 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.9296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.53125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.06640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.46484375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.53125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.46484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1931,16 +1933,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D2" s="8">
         <v>400</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F2" s="8">
         <v>835</v>
@@ -1958,7 +1960,7 @@
         <v>12.2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1966,16 +1968,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D3" s="8">
         <v>120</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F3" s="8">
         <v>168</v>
@@ -1993,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2001,16 +2003,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8">
         <v>400</v>
@@ -2028,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2036,16 +2038,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F5" s="8">
         <v>1450</v>
@@ -2063,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2071,16 +2073,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D6" s="8">
         <v>80</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F6" s="8">
         <v>240</v>
@@ -2098,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2106,16 +2108,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D7" s="8">
         <v>150</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8">
         <v>780</v>
@@ -2133,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2141,16 +2143,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D8" s="8">
         <v>150</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F8" s="8">
         <v>1300</v>
@@ -2168,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2176,16 +2178,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D9" s="8">
         <v>150</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F9" s="8">
         <v>700</v>
@@ -2203,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2211,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D10" s="8">
         <v>350</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8">
         <v>500</v>
@@ -2238,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2246,16 +2248,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D11" s="8">
         <v>700</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
         <v>635</v>
@@ -2273,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2281,16 +2283,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D12" s="8">
         <v>100</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F12" s="8">
         <v>332</v>
@@ -2308,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2316,16 +2318,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D13" s="8">
         <v>150</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8">
         <v>230</v>
@@ -2343,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2351,16 +2353,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D14" s="8">
         <v>300</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
         <v>430</v>
@@ -2378,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2386,16 +2388,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D15" s="8">
         <v>200</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8">
         <v>630</v>
@@ -2413,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2421,16 +2423,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D16" s="8">
         <v>470</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F16" s="8">
         <v>750</v>
@@ -2448,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2456,16 +2458,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D17" s="8">
         <v>76</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>75</v>
@@ -2483,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2491,16 +2493,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8">
         <v>110</v>
@@ -2518,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,16 +2528,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D19" s="8">
         <v>450</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F19" s="8">
         <v>965</v>
@@ -2553,7 +2555,7 @@
         <v>50</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2561,16 +2563,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D20" s="8">
         <v>1200</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F20" s="8">
         <v>1840</v>
@@ -2588,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2596,16 +2598,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D21" s="8">
         <v>270</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F21" s="8">
         <v>800</v>
@@ -2623,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2631,16 +2633,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D22" s="8">
         <v>600</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F22" s="8">
         <v>1615</v>
@@ -2658,7 +2660,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2666,16 +2668,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8">
         <v>1000</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F23" s="8">
         <v>700</v>
@@ -2693,7 +2695,7 @@
         <v>1.2</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,16 +2703,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8">
         <v>1300</v>
@@ -2728,7 +2730,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2736,16 +2738,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D25" s="8">
         <v>1000</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F25" s="8">
         <v>820</v>
@@ -2763,7 +2765,7 @@
         <v>50</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2771,16 +2773,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D26" s="8">
         <v>600</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F26" s="8">
         <v>360</v>
@@ -2798,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2806,16 +2808,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D27" s="8">
         <v>500</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
         <v>380</v>
@@ -2833,7 +2835,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2841,16 +2843,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D28" s="8">
         <v>650</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F28" s="8">
         <v>880</v>
@@ -2868,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2876,16 +2878,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D29" s="8">
         <v>50</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8">
         <v>574</v>
@@ -2903,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2911,16 +2913,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D30" s="8">
         <v>400</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F30" s="8">
         <v>300</v>
@@ -2938,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2946,16 +2948,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D31" s="8">
         <v>400</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F31" s="8">
         <v>340</v>
@@ -2973,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2981,16 +2983,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D32" s="8">
         <v>500</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F32" s="8">
         <v>640</v>
@@ -3008,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3016,16 +3018,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D33" s="8">
         <v>580</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F33" s="8">
         <v>350</v>
@@ -3043,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3051,16 +3053,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D34" s="8">
         <v>120</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F34" s="8">
         <v>377</v>
@@ -3078,7 +3080,7 @@
         <v>19</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3086,16 +3088,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F35" s="8">
         <v>4548</v>
@@ -3113,7 +3115,7 @@
         <v>1.5</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3121,16 +3123,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D36" s="8">
         <v>130</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F36" s="8">
         <v>330</v>
@@ -3148,7 +3150,7 @@
         <v>21</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3156,16 +3158,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D37" s="8">
         <v>45</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F37" s="8">
         <v>480</v>
@@ -3183,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3191,16 +3193,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D38" s="8">
         <v>1500</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F38" s="8">
         <v>559</v>
@@ -3218,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3226,16 +3228,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D39" s="8">
         <v>300</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F39" s="8">
         <v>1120</v>
@@ -3253,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3261,16 +3263,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D40" s="8">
         <v>500</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F40" s="8">
         <v>1110</v>
@@ -3288,7 +3290,7 @@
         <v>60</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3296,16 +3298,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F41" s="8">
         <v>1360</v>
@@ -3323,7 +3325,7 @@
         <v>23</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3331,16 +3333,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F42" s="8">
         <v>605</v>
@@ -3358,7 +3360,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3366,16 +3368,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D43" s="8">
         <v>300</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F43" s="8">
         <v>60</v>
@@ -3393,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3401,16 +3403,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D44" s="8">
         <v>150</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F44" s="8">
         <v>1120</v>
@@ -3428,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3436,16 +3438,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D45" s="8">
         <v>200</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F45" s="8">
         <v>800</v>
@@ -3460,10 +3462,10 @@
         <v>80</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3471,16 +3473,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D46" s="8">
         <v>400</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F46" s="8">
         <v>1120</v>
@@ -3498,7 +3500,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3506,16 +3508,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D47" s="8">
         <v>660</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="F47" s="8">
         <v>300</v>
@@ -3533,7 +3535,7 @@
         <v>2.5</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3541,16 +3543,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="D48" s="8">
         <v>1250</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F48" s="8">
         <v>3000</v>
@@ -3568,7 +3570,7 @@
         <v>108</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3576,16 +3578,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D49" s="8">
         <v>38</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F49" s="8">
         <v>57</v>
@@ -3603,7 +3605,7 @@
         <v>0.5</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3611,16 +3613,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D50" s="8">
         <v>180</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="F50" s="8">
         <v>280</v>
@@ -3638,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3646,16 +3648,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="D51" s="8">
         <v>40</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F51" s="8">
         <v>330</v>
@@ -3673,11 +3675,11 @@
         <v>26</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3701,187 +3703,187 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
